--- a/data_save/data_100.xlsx
+++ b/data_save/data_100.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -921,6 +921,32 @@
         <v>68.59999999999999</v>
       </c>
     </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>-58507.66809999993</v>
+      </c>
+      <c r="B22">
+        <v>232616.4571100001</v>
+      </c>
+      <c r="C22">
+        <v>4869</v>
+      </c>
+      <c r="D22">
+        <v>269481</v>
+      </c>
+      <c r="E22">
+        <v>-103.37</v>
+      </c>
+      <c r="F22">
+        <v>58.15</v>
+      </c>
+      <c r="G22">
+        <v>1.22</v>
+      </c>
+      <c r="H22">
+        <v>71.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
